--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ042Log.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ042Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC45C7-3339-476C-BC98-1E8E04C366E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410180DB-899A-4E1E-9258-2DBBA8F44F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增,C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>OutJcicTxtDate</t>
   </si>
   <si>
@@ -485,6 +481,11 @@
   <si>
     <t>ukeyEq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1062,7 +1063,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1083,7 @@
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>20</v>
@@ -1110,10 +1111,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1191,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>23</v>
@@ -1210,10 +1211,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>23</v>
@@ -1224,7 +1225,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>3</v>
       </c>
@@ -1242,7 +1243,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H11"/>
     </row>
@@ -1697,7 +1698,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>55</v>
@@ -2178,24 +2179,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
